--- a/HistorialAsistencia.xlsx
+++ b/HistorialAsistencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anrlv\OneDrive\Documentos\GitHub\ProgramaRegistro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4C3E8-7863-4A9C-8B3B-125205C7C606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72F6E47-533B-4928-AE8B-CCFE91402DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Asistencias</t>
   </si>
@@ -142,9 +142,6 @@
   </si>
   <si>
     <t>30 (Domingo)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>DNI:</t>
@@ -499,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +508,7 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1">
         <v>7777777</v>
@@ -549,41 +546,31 @@
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
@@ -601,32 +588,28 @@
       <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
+      <c r="C14" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>4</v>
+      <c r="C17" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -729,7 +712,9 @@
       <c r="B34" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
